--- a/tables/data_table.xlsx
+++ b/tables/data_table.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>测试元数据</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ID 字段</t>
   </si>
   <si>
@@ -53,6 +56,39 @@
   </si>
   <si>
     <t>Array</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>"a":1, "b":"str1"</t>
+  </si>
+  <si>
+    <t>歪比八卜</t>
+  </si>
+  <si>
+    <t>1, 1.2, "string"</t>
+  </si>
+  <si>
+    <t>注解#</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>"c":"str2"</t>
+  </si>
+  <si>
+    <t>玛卡巴卡</t>
+  </si>
+  <si>
+    <t>注解##</t>
   </si>
 </sst>
 </file>
@@ -89,9 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -399,18 +438,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -421,58 +460,98 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
